--- a/Data_Driven_Testing/caldata.xlsx
+++ b/Data_Driven_Testing/caldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aiubedu60714-my.sharepoint.com/personal/20-43240-1_student_aiub_edu/Documents/GitHub/Selenium/Data_Driven_Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3073C20C-4538-442E-83D0-C5DACE239613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3073C20C-4538-442E-83D0-C5DACE239613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947D74AD-4236-4E60-AB52-195DE3810843}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F5615E4C-CBAA-447E-8651-947EBB834310}"/>
   </bookViews>
@@ -100,13 +100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,10 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,7 +472,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +491,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,7 +527,7 @@
       <c r="F2" s="1">
         <v>24000</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1"/>
@@ -551,7 +551,7 @@
       <c r="F3" s="1">
         <v>70000</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1"/>
@@ -575,7 +575,7 @@
       <c r="F4" s="1">
         <v>51250</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1"/>
@@ -599,7 +599,7 @@
       <c r="F5" s="1">
         <v>76500</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1"/>
@@ -623,7 +623,7 @@
       <c r="F6" s="1">
         <v>75045.320000000007</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1"/>

--- a/Data_Driven_Testing/caldata.xlsx
+++ b/Data_Driven_Testing/caldata.xlsx
@@ -1,93 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aiubedu60714-my.sharepoint.com/personal/20-43240-1_student_aiub_edu/Documents/GitHub/Selenium/Data_Driven_Testing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3073C20C-4538-442E-83D0-C5DACE239613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947D74AD-4236-4E60-AB52-195DE3810843}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F5615E4C-CBAA-447E-8651-947EBB834310}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Principle</t>
-  </si>
-  <si>
-    <t>Rate of Interest</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Maturity Value</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Simple Interest</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>year(s)</t>
-  </si>
-  <si>
-    <t>month(s)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,8 +50,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060b212"/>
+        <bgColor rgb="0060b212"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,41 +86,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,165 +519,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DA201-65BA-4FA8-B9ED-D5F45886DC20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.28515625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Principle</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Rate of Interest</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Maturity Value</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>year(s)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Simple Interest</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>year(s)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Simple Interest</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>month(s)</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Simple Interest</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>51250</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>75000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>month(s)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Simple Interest</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>76500</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>40000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>70000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>51250</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>75000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>76500</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>75000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>75045.320000000007</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>year(s)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Simple Interest</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>75045.32000000001</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
